--- a/WHUT_News_spider/WHUT-Jobinfo/学校就业新闻.xlsx
+++ b/WHUT_News_spider/WHUT-Jobinfo/学校就业新闻.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
   <si>
     <t>日期</t>
   </si>
@@ -28,13 +28,148 @@
     <t>链接</t>
   </si>
   <si>
+    <t>2018-11-05</t>
+  </si>
+  <si>
+    <t>快消行业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 深圳虹望奈喜美电器有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5560</t>
+  </si>
+  <si>
+    <t>机械机电</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国重型汽车集团有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5555</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 深圳市思迪信息技术股份有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5554</t>
+  </si>
+  <si>
+    <t>建筑建材</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 成都基准方中建筑设计有限公司武汉分公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5553</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 东风鸿泰控股集团有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5552</t>
+  </si>
+  <si>
+    <t>冶金矿产</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 湖南氟瑞矿业有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5551</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 武汉国博文化旅游发展有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5550</t>
+  </si>
+  <si>
+    <t>水利水电</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 湖北长江电气有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5547</t>
+  </si>
+  <si>
+    <t>信息产业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 山西云时代技术有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5544</t>
+  </si>
+  <si>
+    <t>石油化工</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上海河图工程股份有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5543</t>
+  </si>
+  <si>
+    <t>文化教育</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 武汉火花思维教育咨询有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5542</t>
+  </si>
+  <si>
+    <t>医药卫生</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 赛默飞世尔科技（中国）有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5541</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鼎信信息科技有限责任公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5539</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中信银行股份有限公司信用卡中心</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上海东峻信息科技有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5533</t>
+  </si>
+  <si>
+    <t>电子电工</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 海洋王照明科技股份有限公司</t>
+  </si>
+  <si>
+    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5532</t>
+  </si>
+  <si>
     <t>2018-11-03</t>
   </si>
   <si>
-    <t>互联网</t>
-  </si>
-  <si>
-    <t>武汉魂力科技有限公司</t>
+    <t xml:space="preserve"> 武汉魂力科技有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5530</t>
@@ -43,25 +178,19 @@
     <t>新兴产业</t>
   </si>
   <si>
-    <t>中国华电集团清洁能源有限公司华南分公司</t>
+    <t xml:space="preserve"> 中国华电集团清洁能源有限公司华南分公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5529</t>
   </si>
   <si>
-    <t>建筑建材</t>
-  </si>
-  <si>
-    <t>武汉都保置业有限责任公司</t>
+    <t xml:space="preserve"> 武汉都保置业有限责任公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5528</t>
   </si>
   <si>
-    <t>金融</t>
-  </si>
-  <si>
-    <t>北大方正人寿保险有限公司湖北分公司</t>
+    <t xml:space="preserve"> 北大方正人寿保险有限公司湖北分公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5524</t>
@@ -70,31 +199,25 @@
     <t>2018-11-02</t>
   </si>
   <si>
-    <t>信息产业</t>
-  </si>
-  <si>
-    <t>杭州码全信息科技有限公司</t>
+    <t xml:space="preserve"> 杭州码全信息科技有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5523</t>
   </si>
   <si>
-    <t>中交二航局市政建设有限公司</t>
+    <t xml:space="preserve"> 中交二航局市政建设有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5522</t>
   </si>
   <si>
-    <t>电子电工</t>
-  </si>
-  <si>
-    <t>万裕三信电子（东莞）有限公司</t>
+    <t xml:space="preserve"> 万裕三信电子（东莞）有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5520</t>
   </si>
   <si>
-    <t>汇付天下有限公司</t>
+    <t xml:space="preserve"> 汇付天下有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5519</t>
@@ -103,28 +226,25 @@
     <t>机构组织</t>
   </si>
   <si>
-    <t>中国南方电网有限责任公司超高压输电公司</t>
+    <t xml:space="preserve"> 中国南方电网有限责任公司超高压输电公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5517</t>
   </si>
   <si>
-    <t>文化教育</t>
-  </si>
-  <si>
-    <t>北京世纪好未来教育科技有限公司</t>
+    <t xml:space="preserve"> 北京世纪好未来教育科技有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5516</t>
   </si>
   <si>
-    <t>保定市天河电子技术有限公司</t>
+    <t xml:space="preserve"> 保定市天河电子技术有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5514</t>
   </si>
   <si>
-    <t>上海浦津实业有限公司</t>
+    <t xml:space="preserve"> 上海浦津实业有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5513</t>
@@ -133,7 +253,7 @@
     <t>交通物流</t>
   </si>
   <si>
-    <t>武汉市洪山建设投资有限责任公司</t>
+    <t xml:space="preserve"> 武汉市洪山建设投资有限责任公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5507</t>
@@ -142,7 +262,7 @@
     <t>2018-11-01</t>
   </si>
   <si>
-    <t>中国太平洋财产保险股份有限公司东莞分公司</t>
+    <t xml:space="preserve"> 中国太平洋财产保险股份有限公司东莞分公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5506</t>
@@ -157,169 +277,58 @@
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5505</t>
   </si>
   <si>
-    <t>爱梦想（三亚）网络科技有限责任公司</t>
+    <t xml:space="preserve"> 爱梦想（三亚）网络科技有限责任公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5504</t>
   </si>
   <si>
-    <t>宁德时代新能源科技股份有限公司</t>
+    <t xml:space="preserve"> 宁德时代新能源科技股份有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5501</t>
   </si>
   <si>
-    <t>珠海博明视觉科技有限公司</t>
+    <t xml:space="preserve"> 珠海博明视觉科技有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5500</t>
   </si>
   <si>
-    <t>前海兴邦金融租赁有限责任公司</t>
+    <t xml:space="preserve"> 前海兴邦金融租赁有限责任公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5499</t>
   </si>
   <si>
-    <t>长沙银行股份有限公司</t>
+    <t xml:space="preserve"> 长沙银行股份有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5496</t>
   </si>
   <si>
-    <t>快消行业</t>
-  </si>
-  <si>
-    <t>良品铺子股份有限公司</t>
+    <t xml:space="preserve"> 良品铺子股份有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5489</t>
   </si>
   <si>
-    <t>中国邮政集团公司江苏省分公司</t>
+    <t xml:space="preserve"> 中国邮政集团公司江苏省分公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5488</t>
   </si>
   <si>
-    <t>烟台港集团有限公司</t>
+    <t xml:space="preserve"> 烟台港集团有限公司</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5487</t>
   </si>
   <si>
-    <t>深圳市光明新区组织人事局</t>
+    <t xml:space="preserve"> 深圳市光明新区组织人事局</t>
   </si>
   <si>
     <t>http://scc.whut.edu.cn/infoView.shtml?iid=5486</t>
-  </si>
-  <si>
-    <t>机械机电</t>
-  </si>
-  <si>
-    <t>福伊特企业管理（上海）有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5485</t>
-  </si>
-  <si>
-    <t>安捷伦科技（中国）有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5484</t>
-  </si>
-  <si>
-    <t>东莞赣锋电子有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5483</t>
-  </si>
-  <si>
-    <t>武汉小狮科技有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5482</t>
-  </si>
-  <si>
-    <t>温州市鹿城区嘉一才艺（业余）学校</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5481</t>
-  </si>
-  <si>
-    <t>南方出版传媒股份有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5480</t>
-  </si>
-  <si>
-    <t>水利水电</t>
-  </si>
-  <si>
-    <t>广州穗能通综合能源有限责任公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5479</t>
-  </si>
-  <si>
-    <t>深圳市威世博知识产权代理事务所（普通合伙）</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5475</t>
-  </si>
-  <si>
-    <t>深圳市星商电子商务有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5474</t>
-  </si>
-  <si>
-    <t>中国重汽集团杭州发动机有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5473</t>
-  </si>
-  <si>
-    <t>2018-10-31</t>
-  </si>
-  <si>
-    <t>上海东峻信息科技有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5472</t>
-  </si>
-  <si>
-    <t>武汉兴龙湖房地产开发有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5469</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>海斯坦普汽车组件（北京）有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5466</t>
-  </si>
-  <si>
-    <t>无锡机床股份有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5465</t>
-  </si>
-  <si>
-    <t>南通中远重工有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5464</t>
-  </si>
-  <si>
-    <t>中材高新氮化物陶瓷有限公司</t>
-  </si>
-  <si>
-    <t>http://scc.whut.edu.cn/infoView.shtml?iid=5463</t>
   </si>
 </sst>
 </file>
@@ -732,24 +741,24 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -760,24 +769,24 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -788,7 +797,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -802,7 +811,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -816,66 +825,66 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -886,352 +895,352 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
